--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2021</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 19/05/2021</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 05/06/2017</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 16/09/2019</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2016</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 06/01/2022</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2021</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 08/09/2020</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 09/04/2014</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2021</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2022</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2020</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2022</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 03/03/2021</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2022</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 09/07/2020</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Erro. Não foi possível pegar dados desta empresa.</t>
+          <t>Optante pelo Simples Nacional desde 01/01/2018</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
           <t>41.090.367/0001-20</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>Optante pelo Simples Nacional desde 01/01/2022</t>
         </is>
